--- a/DWServices/CTCCGoods/template/netcap_table1_template.xlsx
+++ b/DWServices/CTCCGoods/template/netcap_table1_template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>基站ID</t>
   </si>
@@ -65,6 +65,14 @@
   </si>
   <si>
     <t>地市编码</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份(不填)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份编码（可不填）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -233,7 +241,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,6 +419,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -658,12 +672,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1007,59 +1024,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="9" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
